--- a/Waste Management Data/processed data/RDRS 2019 Q3_Q4.xlsx
+++ b/Waste Management Data/processed data/RDRS 2019 Q3_Q4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,13 +394,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>1153829.427274443</v>
+        <v>663910.0130543858</v>
       </c>
       <c r="D2">
-        <v>2576.331782289856</v>
+        <v>1482.413627855627</v>
       </c>
       <c r="E2">
-        <v>4568.584392014518</v>
+        <v>3397.332123411979</v>
       </c>
     </row>
     <row r="3">
@@ -413,10 +413,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>548.4710091081209</v>
+        <v>307.8621436715401</v>
       </c>
       <c r="D3">
-        <v>258.6186583946885</v>
+        <v>145.1651832907565</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>33612.87658802178</v>
+        <v>17524.1833030853</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.223230490018149</v>
+        <v>0.03629764065335753</v>
       </c>
     </row>
     <row r="5">
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>155054.3405153066</v>
+        <v>75132.39493263619</v>
       </c>
       <c r="D5">
-        <v>92.04763958912125</v>
+        <v>44.60216713213589</v>
       </c>
       <c r="E5">
-        <v>55.83484573502722</v>
+        <v>22.80399274047187</v>
       </c>
     </row>
     <row r="6">
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>72192.78584392014</v>
+        <v>16235.67150635208</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.506352087114337</v>
+        <v>0.2177858439201452</v>
       </c>
     </row>
     <row r="7">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>21996.89655172414</v>
+        <v>10816.43375680581</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.02177858439201</v>
+        <v>76.98729582577131</v>
       </c>
     </row>
     <row r="8">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>686047.7132486389</v>
+        <v>344664.4736842105</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.65517241379311</v>
+        <v>67.92196007259527</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>187.3117671731364</v>
+        <v>92.21892917920594</v>
       </c>
       <c r="D9">
-        <v>185.5276846897942</v>
+        <v>91.34057445187524</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>113041.9640262482</v>
+        <v>59112.99833114279</v>
       </c>
       <c r="D10">
-        <v>28150.4690884622</v>
+        <v>14720.71585611128</v>
       </c>
       <c r="E10">
-        <v>1.533575317604356</v>
+        <v>2.313974591651542</v>
       </c>
     </row>
     <row r="11">
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>889407.9310344824</v>
+        <v>434457.9673321234</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1210.98003629764</v>
+        <v>653.9110707803992</v>
       </c>
     </row>
     <row r="12">
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>30237.48638838475</v>
+        <v>13666.93284936479</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.31578947368421</v>
+        <v>21.4519056261343</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>21576.05274310771</v>
+        <v>10585.72798665416</v>
       </c>
       <c r="D13">
-        <v>16861.28084942969</v>
+        <v>8272.54802830701</v>
       </c>
       <c r="E13">
-        <v>1.932849364791288</v>
+        <v>2.386569872958257</v>
       </c>
     </row>
     <row r="14">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>115344.1242357123</v>
+        <v>53788.62332618529</v>
       </c>
       <c r="D14">
-        <v>28521.19790526063</v>
+        <v>13300.3391469044</v>
       </c>
       <c r="E14">
-        <v>1889.464609800363</v>
+        <v>3104.1833030853</v>
       </c>
     </row>
     <row r="15">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>20887.47731397458</v>
+        <v>11001.56987295826</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>950553.3393829403</v>
+        <v>428623.9927404717</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1137.803992740472</v>
+        <v>470.9165154264972</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>110590.5081669691</v>
+        <v>52042.98548094373</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.854809437386569</v>
+        <v>1.742286751361161</v>
       </c>
     </row>
     <row r="18">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>50300.21778584391</v>
+        <v>23445.98003629764</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>20672.75125762227</v>
+        <v>10897.02300110724</v>
       </c>
       <c r="D19">
-        <v>892.6372984760274</v>
+        <v>470.5270745979209</v>
       </c>
       <c r="E19">
-        <v>3.475499092558983</v>
+        <v>0.03629764065335753</v>
       </c>
     </row>
     <row r="20">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>9860485.585067088</v>
+        <v>4818313.179167348</v>
       </c>
       <c r="D20">
-        <v>0.8849872834547777</v>
+        <v>0.4324478601462965</v>
       </c>
       <c r="E20">
-        <v>306984.8094373866</v>
+        <v>157550.7985480944</v>
       </c>
     </row>
     <row r="21">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>161081.7332123412</v>
+        <v>72001.32486388384</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>699.6370235934663</v>
+        <v>233.1941923774955</v>
       </c>
     </row>
     <row r="22">
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="C22">
-        <v>208660.7894736842</v>
+        <v>117177.2686025408</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.413793103448276</v>
+        <v>18.75680580762251</v>
       </c>
     </row>
     <row r="23">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>11746.01633393829</v>
+        <v>7094.745916515426</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.2359346642468239</v>
       </c>
     </row>
     <row r="24">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>64919.01088929221</v>
+        <v>32232.19600725952</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1270417422867514</v>
       </c>
     </row>
     <row r="25">
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="C25">
-        <v>267867.9401088929</v>
+        <v>125760.0090744101</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5579.455535390199</v>
+        <v>4549.165154264972</v>
       </c>
     </row>
     <row r="26">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>5574.764513806436</v>
+        <v>3647.190769298343</v>
       </c>
       <c r="D26">
-        <v>1795.450423395007</v>
+        <v>1174.641582567561</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>21525.03518459669</v>
+        <v>16046.6264012651</v>
       </c>
       <c r="D27">
-        <v>400.2051600937854</v>
+        <v>298.3476046756476</v>
       </c>
       <c r="E27">
-        <v>0.02722323049001815</v>
+        <v>0.05444646098003629</v>
       </c>
     </row>
     <row r="28">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="C28">
-        <v>489088.4301270416</v>
+        <v>265613.1488203267</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>62.96733212341197</v>
+        <v>1.705989110707804</v>
       </c>
     </row>
     <row r="29">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C29">
-        <v>122249.9092558984</v>
+        <v>66031.45190562613</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>205.4990925589836</v>
+        <v>108.6116152450091</v>
       </c>
     </row>
     <row r="30">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="C30">
-        <v>8305.540128090926</v>
+        <v>4317.156033093373</v>
       </c>
       <c r="D30">
-        <v>7358.288675530032</v>
+        <v>3824.781995979461</v>
       </c>
       <c r="E30">
-        <v>1.052631578947368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C31">
-        <v>3286682.078039927</v>
+        <v>1536179.727767695</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>26425.84392014518</v>
+        <v>15386.15245009075</v>
       </c>
     </row>
     <row r="32">
@@ -964,13 +964,13 @@
         </is>
       </c>
       <c r="C32">
-        <v>281156.7496929411</v>
+        <v>139252.0748979029</v>
       </c>
       <c r="D32">
-        <v>17868.44914465877</v>
+        <v>8849.933787180433</v>
       </c>
       <c r="E32">
-        <v>27.3502722323049</v>
+        <v>8.920145190562613</v>
       </c>
     </row>
     <row r="33">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>179.1647666390294</v>
+        <v>94.81553704356935</v>
       </c>
       <c r="D33">
-        <v>177.6208555234734</v>
+        <v>93.99848598874944</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C34">
-        <v>2304472.323049001</v>
+        <v>1122074.137931034</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>3948.012704174229</v>
+        <v>998.9473684210525</v>
       </c>
     </row>
     <row r="35">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C35">
-        <v>1264236.305345234</v>
+        <v>624680.2803128507</v>
       </c>
       <c r="D35">
-        <v>70977.19724653031</v>
+        <v>35071.01898934579</v>
       </c>
       <c r="E35">
-        <v>1384.94555353902</v>
+        <v>770.8802177858438</v>
       </c>
     </row>
     <row r="36">
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C36">
-        <v>91722.41379310343</v>
+        <v>42211.88747731397</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>7.450090744101634</v>
+        <v>0.9800362976406534</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         </is>
       </c>
       <c r="C37">
-        <v>1965814.432312911</v>
+        <v>894648.1292405222</v>
       </c>
       <c r="D37">
-        <v>3756.54240624153</v>
+        <v>1709.613878560496</v>
       </c>
       <c r="E37">
-        <v>8272.413793103447</v>
+        <v>2973.638838475498</v>
       </c>
     </row>
     <row r="38">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C38">
-        <v>3132594.264564375</v>
+        <v>1299124.667608244</v>
       </c>
       <c r="D38">
-        <v>119.4150938514605</v>
+        <v>49.52288135813188</v>
       </c>
       <c r="E38">
-        <v>2693.693284936479</v>
+        <v>1437.758620689655</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="C39">
-        <v>457710.6442831216</v>
+        <v>262318.774954628</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>4433.938294010889</v>
+        <v>1573.312159709619</v>
       </c>
     </row>
     <row r="40">
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="C40">
-        <v>755078.3832100003</v>
+        <v>385529.023905048</v>
       </c>
       <c r="D40">
-        <v>1.698455870645697</v>
+        <v>0.8672000795097874</v>
       </c>
       <c r="E40">
-        <v>9510.009074410164</v>
+        <v>7197.023593466424</v>
       </c>
     </row>
     <row r="41">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C41">
-        <v>279969.7368421052</v>
+        <v>122337.4228675136</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.7894736842105262</v>
+        <v>0.1633393829401089</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C42">
-        <v>478084.5916515426</v>
+        <v>294380.0181488203</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>7357.023593466424</v>
+        <v>5.753176043557168</v>
       </c>
     </row>
     <row r="43">
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="C43">
-        <v>407291.1887477314</v>
+        <v>197441.0980036297</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.1088929219600726</v>
+        <v>0.009074410163339382</v>
       </c>
     </row>
     <row r="44">
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="C44">
-        <v>1275739.410163339</v>
+        <v>687301.11615245</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>338.6479128856624</v>
+        <v>1505.952813067151</v>
       </c>
     </row>
     <row r="45">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="C45">
-        <v>228013.7295825771</v>
+        <v>107403.8112522686</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>5.961887477313974</v>
+        <v>0.6079854809437385</v>
       </c>
     </row>
     <row r="46">
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>185238.6449467259</v>
+        <v>94405.55809804494</v>
       </c>
       <c r="D46">
-        <v>494.9202907205377</v>
+        <v>252.2326066083915</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>31.73212245081506</v>
+        <v>16.23628754844005</v>
       </c>
       <c r="D47">
-        <v>31.37800948985457</v>
+        <v>16.05509954667006</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>925.4081816390362</v>
+        <v>459.0751930038419</v>
       </c>
       <c r="D48">
-        <v>902.4107336815869</v>
+        <v>447.6666512715191</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>403044.4736842106</v>
+        <v>210894.1742286751</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>125.7168784029037</v>
+        <v>43.82940108892921</v>
       </c>
     </row>
     <row r="50">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>384234.0108892922</v>
+        <v>214480.5081669691</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>227.7858439201452</v>
+        <v>124.3738656987296</v>
       </c>
     </row>
     <row r="51">
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>453970.7985480943</v>
+        <v>203358.3484573503</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>209787.613430127</v>
+        <v>101578.9201451906</v>
       </c>
     </row>
     <row r="52">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>57816.98729582577</v>
+        <v>28678.55716878403</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>8647.099817847291</v>
+        <v>6704.477680125818</v>
       </c>
       <c r="D53">
-        <v>67.88927443427545</v>
+        <v>52.63754724157323</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>431132.4228675137</v>
+        <v>194565.6987295826</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>401.3520871143376</v>
+        <v>158.8656987295826</v>
       </c>
     </row>
     <row r="55">
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="C55">
-        <v>41386.65154264972</v>
+        <v>21705.0725952813</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>172.9854809437387</v>
+        <v>172.6315789473684</v>
       </c>
     </row>
     <row r="56">
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>888664.0381125227</v>
+        <v>454988.9292196006</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>113.5662431941924</v>
+        <v>130.989110707804</v>
       </c>
     </row>
     <row r="57">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>162095.7340825927</v>
+        <v>89090.37254675817</v>
       </c>
       <c r="D57">
-        <v>2456.484368086648</v>
+        <v>1350.122560268101</v>
       </c>
       <c r="E57">
-        <v>1.778584392014519</v>
+        <v>2.849364791288566</v>
       </c>
     </row>
     <row r="58">
@@ -1458,12 +1458,1095 @@
         </is>
       </c>
       <c r="C58">
-        <v>147137.3774954628</v>
+        <v>73679.85480943738</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>alameda</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>663910.0130543858</v>
+      </c>
+      <c r="D59">
+        <v>1482.413627855627</v>
+      </c>
+      <c r="E59">
+        <v>3397.332123411979</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>alpine</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>307.8621436715401</v>
+      </c>
+      <c r="D60">
+        <v>145.1651832907565</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>amador</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>17524.1833030853</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.03629764065335753</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>butte</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>75132.39493263619</v>
+      </c>
+      <c r="D62">
+        <v>44.60216713213589</v>
+      </c>
+      <c r="E62">
+        <v>22.80399274047187</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>calaveras</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>16235.67150635208</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.2177858439201452</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>colusa</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>10816.43375680581</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>76.98729582577131</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>2019</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>contracosta</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>344664.4736842105</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>67.92196007259527</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>2019</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>delnorte</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>180.2043074407602</v>
+      </c>
+      <c r="D66">
+        <v>178.4879211550513</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>2019</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>eldorado</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>59112.99833114279</v>
+      </c>
+      <c r="D67">
+        <v>14720.71585611128</v>
+      </c>
+      <c r="E67">
+        <v>2.313974591651542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>2019</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>fresno</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>434457.9673321234</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>653.9110707803992</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>2019</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>glenn</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>13666.93284936479</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>21.4519056261343</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>2019</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>humboldt</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>10585.72798665416</v>
+      </c>
+      <c r="D70">
+        <v>8272.54802830701</v>
+      </c>
+      <c r="E70">
+        <v>2.386569872958257</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>2019</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>imperial</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>53788.62332618529</v>
+      </c>
+      <c r="D71">
+        <v>13300.3391469044</v>
+      </c>
+      <c r="E71">
+        <v>3104.1833030853</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>2019</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>inyo</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>11001.56987295826</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>2019</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>kern</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>428623.9927404717</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>470.9165154264972</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>2019</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>kings</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>52042.98548094373</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1.742286751361161</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>2019</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>lake</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>23445.98003629764</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>2019</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>lassen</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>10897.02300110724</v>
+      </c>
+      <c r="D76">
+        <v>470.5270745979209</v>
+      </c>
+      <c r="E76">
+        <v>0.03629764065335753</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>2019</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>losangeles</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>4833250.001783197</v>
+      </c>
+      <c r="D77">
+        <v>0.4337884531582943</v>
+      </c>
+      <c r="E77">
+        <v>157550.7985480944</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>2019</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>madera</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>72001.32486388384</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>233.1941923774955</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>2019</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>marin</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>117177.2686025408</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>18.75680580762251</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>2019</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>mariposa</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>7094.745916515426</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.2359346642468239</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>2019</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>mendocino</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>32232.19600725952</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.1270417422867514</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>2019</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>merced</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>125760.0090744101</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>4549.165154264972</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>2019</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>modoc</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>3796.495868918272</v>
+      </c>
+      <c r="D83">
+        <v>1222.727901489864</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>2019</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>mono</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>19705.37039431028</v>
+      </c>
+      <c r="D84">
+        <v>366.3729627260094</v>
+      </c>
+      <c r="E84">
+        <v>0.05444646098003629</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>2019</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>monterey</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>265613.1488203267</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1.705989110707804</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>2019</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>napa</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>66031.45190562613</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>108.6116152450091</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>2019</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>nevada</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>4317.156033093373</v>
+      </c>
+      <c r="D87">
+        <v>3824.781995979461</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>2019</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>1536179.727767695</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>15386.15245009075</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>2019</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>placer</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>139252.0748979029</v>
+      </c>
+      <c r="D89">
+        <v>8849.933787180433</v>
+      </c>
+      <c r="E89">
+        <v>8.920145190562613</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>2019</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>plumas</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>94.81553704356935</v>
+      </c>
+      <c r="D90">
+        <v>93.99848598874944</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>2019</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>riverside</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>1122074.137931034</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>998.9473684210525</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>2019</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>sacramento</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>624680.2803128507</v>
+      </c>
+      <c r="D92">
+        <v>35071.01898934579</v>
+      </c>
+      <c r="E92">
+        <v>770.8802177858438</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>2019</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>sanbenito</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>42211.88747731397</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0.9800362976406534</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>2019</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>sanbernardino</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>894648.1292405222</v>
+      </c>
+      <c r="D94">
+        <v>1709.613878560496</v>
+      </c>
+      <c r="E94">
+        <v>2973.638838475498</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>2019</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>sandiego</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>1299124.667608244</v>
+      </c>
+      <c r="D95">
+        <v>49.52288135813188</v>
+      </c>
+      <c r="E95">
+        <v>1437.758620689655</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>2019</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>sanfrancisco</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>262318.774954628</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1573.312159709619</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>2019</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>sanjoaquin</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>385529.023905048</v>
+      </c>
+      <c r="D97">
+        <v>0.8672000795097874</v>
+      </c>
+      <c r="E97">
+        <v>7197.023593466424</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>2019</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>sanluisobispo</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>122337.4228675136</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0.1633393829401089</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>2019</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>sanmateo</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>294380.0181488203</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>5.753176043557168</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>2019</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>santabarbara</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>197441.0980036297</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0.009074410163339382</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>2019</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>santaclara</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>687301.11615245</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1505.952813067151</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>2019</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>santacruz</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>110038.112522686</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0.6079854809437385</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>2019</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>shasta</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>94405.55809804494</v>
+      </c>
+      <c r="D103">
+        <v>252.2326066083915</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>2019</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>sierra</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>16.23628754844005</v>
+      </c>
+      <c r="D104">
+        <v>16.05509954667006</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>2019</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>siskiyou</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>459.0751930038419</v>
+      </c>
+      <c r="D105">
+        <v>447.6666512715191</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>2019</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>solano</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>210894.1742286751</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>43.82940108892921</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>2019</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>sonoma</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>214480.5081669691</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>124.3738656987296</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>2019</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>stanislaus</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>203358.3484573503</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>101578.9201451906</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>2019</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>tehama</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>28678.55716878403</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>2019</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>trinity</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>6704.477680125818</v>
+      </c>
+      <c r="D110">
+        <v>52.63754724157323</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>2019</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>tulare</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>194565.6987295826</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>158.8656987295826</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>2019</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>tuolumne</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>21705.0725952813</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>172.6315789473684</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>2019</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ventura</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>454988.9292196006</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>130.989110707804</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>2019</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>yolo</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>89090.37254675817</v>
+      </c>
+      <c r="D114">
+        <v>1350.122560268101</v>
+      </c>
+      <c r="E114">
+        <v>2.849364791288566</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>2019</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>yuba</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>73679.85480943738</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>0</v>
       </c>
     </row>
